--- a/report/reliability/by-unidade/Faculdade de Medicina - FAMED.xlsx
+++ b/report/reliability/by-unidade/Faculdade de Medicina - FAMED.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7658981182705644</v>
+        <v>0.7463107226825956</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7924750494337411</v>
+        <v>0.7748664217678188</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8890271998083203</v>
+        <v>0.8795263374526606</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.24140405014120667</v>
+        <v>0.2093326687334845</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.8186976904288845</v>
+        <v>3.4418074276272375</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.02495348768294005</v>
+        <v>0.02538348812016082</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.870184254606365</v>
+        <v>2.1600309238500195</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6719353420723713</v>
+        <v>0.5872225828750793</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.173269119635378</v>
+        <v>0.1598149567310519</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7430770210091056</v>
+        <v>0.7505268189795953</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7618676903625259</v>
+        <v>0.7835407077524901</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8689144725619733</v>
+        <v>0.8846165738540634</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22531644230607725</v>
+        <v>0.23174463391621242</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.1993461597981883</v>
+        <v>3.619806290674518</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02737199884588286</v>
+        <v>0.025615642897898173</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03626345888826107</v>
+        <v>0.050379995931849046</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.16311221760701053</v>
+        <v>0.16249877508637584</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.74508781490528</v>
+        <v>0.7263547098144332</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7668481300768955</v>
+        <v>0.749523588945103</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8655454918183163</v>
+        <v>0.8629860677562111</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.23017974662843493</v>
+        <v>0.19959402989851122</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.2890498812203743</v>
+        <v>2.9923919214126307</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02714125406431875</v>
+        <v>0.02730942705733955</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03555593040573018</v>
+        <v>0.05369661355808697</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.1728260801233205</v>
+        <v>0.1415958840171434</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7506902980103707</v>
+        <v>0.7298304946676353</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7708069255569203</v>
+        <v>0.7542139404784486</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8700845322324959</v>
+        <v>0.8635003180886275</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2341504075870828</v>
+        <v>0.20364090065497695</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.3631335825915216</v>
+        <v>3.068578998933486</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.026660291101340106</v>
+        <v>0.02695466697505491</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03700505149947765</v>
+        <v>0.0535240252486811</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.17088417218951668</v>
+        <v>0.14674993070926556</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7530722795924567</v>
+        <v>0.7341212615026895</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7748538296515751</v>
+        <v>0.7533787574125015</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8680372721093542</v>
+        <v>0.8583956449434132</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.23830938215303157</v>
+        <v>0.20291206789354568</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.4415590034351906</v>
+        <v>3.0548007523934655</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.0263612595255051</v>
+        <v>0.02696719414110763</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.033863533936615904</v>
+        <v>0.03867250661162859</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.17465687311044373</v>
+        <v>0.16049326089936455</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7454540919264766</v>
+        <v>0.7148544645559738</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7813068134491967</v>
+        <v>0.7499507603672653</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8493014736546682</v>
+        <v>0.8561659023333386</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.24515955985919627</v>
+        <v>0.19995798824808655</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.5726161650111394</v>
+        <v>2.9992123210163406</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.027049238798679855</v>
+        <v>0.028228575500068208</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03234820260675665</v>
+        <v>0.03900407717278561</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.1789567296587555</v>
+        <v>0.16005386860226556</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7487780090856712</v>
+        <v>0.7177025158803144</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7823519492720786</v>
+        <v>0.7504747122830626</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8498764060814283</v>
+        <v>0.8568582936281484</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2462952149333965</v>
+        <v>0.20040565268192514</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.594573655291243</v>
+        <v>3.0076098464793883</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.026682455197961412</v>
+        <v>0.02789898102145458</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.032074026845576455</v>
+        <v>0.038972278527892694</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.1789567296587555</v>
+        <v>0.1598149567310519</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7539987106813383</v>
+        <v>0.7465872037969268</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7883922562856905</v>
+        <v>0.7748163415975561</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8796344488953302</v>
+        <v>0.8796807489879366</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.25300791530024047</v>
+        <v>0.22283918055557583</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.725724977957777</v>
+        <v>3.4408195829771064</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02634445221830226</v>
+        <v>0.025898693030898617</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03910921562885165</v>
+        <v>0.05190690385490275</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.17465687311044373</v>
+        <v>0.1613087526681597</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7688629498702846</v>
+        <v>0.7298503633469141</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7917998105570491</v>
+        <v>0.7621093212550609</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8822560206683507</v>
+        <v>0.8638058211117188</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.25691087730613277</v>
+        <v>0.21071385068652151</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.803069596985212</v>
+        <v>3.203611529782458</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.024593345754768518</v>
+        <v>0.02685683895549013</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03808875893804357</v>
+        <v>0.05279411946242841</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.1789567296587555</v>
+        <v>0.16109227139495996</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7567326926030349</v>
+        <v>0.7481529294626788</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.786038302104262</v>
+        <v>0.769649120942933</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8892193989495097</v>
+        <v>0.8749997725213914</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.25036120882659185</v>
+        <v>0.21779277982026085</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.6737337095132463</v>
+        <v>3.3412033159737202</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.02629328213580865</v>
+        <v>0.024693914354635155</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04159106515465886</v>
+        <v>0.052752192677519245</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.17138652886752526</v>
+        <v>0.1616688512925414</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.744646845864609</v>
+        <v>0.7305299442325274</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7771113471528879</v>
+        <v>0.7634493182690822</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8835504524003079</v>
+        <v>0.8778319385693217</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.24067471566455143</v>
+        <v>0.21194812089272091</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.486545130163885</v>
+        <v>3.2274238767044623</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02738629167910281</v>
+        <v>0.027089997183310153</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04226910040298295</v>
+        <v>0.056930293458841985</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.17088417218951668</v>
+        <v>0.13502699507242227</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.741516065552022</v>
+        <v>0.7218597346205813</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7717824964397856</v>
+        <v>0.7582475779084485</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8654672710539566</v>
+        <v>0.8721299582919454</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23514361302129497</v>
+        <v>0.20721242253095887</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.381784851730943</v>
+        <v>3.1364632103718955</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02757625721983838</v>
+        <v>0.027774692367961668</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03789129571968524</v>
+        <v>0.05647149982310442</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1728260801233205</v>
+        <v>0.15034293673650198</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7472930492490395</v>
+        <v>0.7184778885902905</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7777402141727666</v>
+        <v>0.754620844321297</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8678230192585266</v>
+        <v>0.8560244322703934</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24133951810844942</v>
+        <v>0.20399730182181675</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.499239465556391</v>
+        <v>3.0753257840262114</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.027004987739473418</v>
+        <v>0.02797862142712239</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.037145840408019874</v>
+        <v>0.052474816411205404</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1728260801233205</v>
+        <v>0.14967722439424458</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.723992976729508</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7597508914305119</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.858189381710208</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20856576393418574</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.162346349396618</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.02744080864549595</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05205956963002296</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.16049326089936455</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>199.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6010951339866112</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6855202458903762</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6610718377021804</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5260544230361194</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.919597989949749</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>0.8608005665364508</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5659577192943694</v>
+        <v>0.14000124440412087</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.645134006739257</v>
+        <v>0.30084771107448877</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6270601069309814</v>
+        <v>0.21322672229863973</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.476753889646904</v>
+        <v>0.1271245228892675</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.492462311557789</v>
+        <v>0.9899497487437185</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>0.9580564645306524</v>
+        <v>0.099997462025557</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5194196990525838</v>
+        <v>0.531305360228081</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6121605277145625</v>
+        <v>0.6148874700474913</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5838224546905529</v>
+        <v>0.5823250321236285</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4428581733537949</v>
+        <v>0.442937121689152</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.9899497487437188</v>
+        <v>3.919597989949749</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.784894960152095</v>
+        <v>0.8608005665364508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.4807237136449274</v>
+        <v>0.4917576828991451</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5776232398315779</v>
+        <v>0.5753585605360031</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5572083712957054</v>
+        <v>0.5397407148880338</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.387558780795614</v>
+        <v>0.3877272131847515</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.482412060301508</v>
+        <v>4.492462311557789</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>0.9036638169115928</v>
+        <v>0.9580564645306524</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5876431762430706</v>
+        <v>0.5985677822729789</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5207374484577991</v>
+        <v>0.5824776325324577</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5460710073368629</v>
+        <v>0.6142209870411247</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4421553217301246</v>
+        <v>0.5658207971717438</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6582914572864321</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5221658862721545</v>
+        <v>0.37286522459448107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5793811403101127</v>
+        <v>0.6334692738295453</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5113066511274773</v>
+        <v>0.6113324079928586</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5360473131497964</v>
+        <v>0.646987676861246</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.42281328297827603</v>
+        <v>0.48925838264165983</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.6934673366834171</v>
+        <v>0.6582914572864321</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6053910243611793</v>
+        <v>1.5221658862721545</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4873066286911095</v>
+        <v>0.6280086648833426</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.45556251002595155</v>
+        <v>0.6069597240200767</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3934665259661979</v>
+        <v>0.6419775947839168</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.36266680766197534</v>
+        <v>0.47293789805417374</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>3.100502512562814</v>
+        <v>0.6934673366834171</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1891554378199198</v>
+        <v>1.6053910243611793</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4685209523484447</v>
+        <v>0.3198755932116206</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4231512220374414</v>
+        <v>0.38783414608453876</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3553535737921297</v>
+        <v>0.31262188578523753</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.2856669243514053</v>
+        <v>0.2950624450475698</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.301507537688442</v>
+        <v>0.9547738693467337</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6543629915381868</v>
+        <v>0.20832381583254792</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5372681586942296</v>
+        <v>0.5059425350641802</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.47754150075375584</v>
+        <v>0.5062715996219433</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3894495883900846</v>
+        <v>0.467647338970685</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3690911511168968</v>
+        <v>0.37614790746150806</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.984924623115578</v>
+        <v>3.100502512562814</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.631376028638058</v>
+        <v>1.1891554378199198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.573626157654539</v>
+        <v>0.47595845561669453</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5579808488692768</v>
+        <v>0.437126236202876</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4853828878206406</v>
+        <v>0.37480975670516303</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4462614160248574</v>
+        <v>0.28274707675334354</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.7889447236180906</v>
+        <v>3.301507537688442</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3316953544753056</v>
+        <v>1.6543629915381868</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5909609145998977</v>
+        <v>0.5666384188203503</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6039126720317746</v>
+        <v>0.4942155300734825</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5826503873722809</v>
+        <v>0.4108313417249438</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4817228678160729</v>
+        <v>0.39373851215635397</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.6683417085427137</v>
+        <v>1.984924623115578</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.1894115189594516</v>
+        <v>1.631376028638058</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>199.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5432401424889983</v>
+        <v>0.5754845998801195</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5524601434583314</v>
+        <v>0.5404727503508308</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5272118272979505</v>
+        <v>0.4734408835860702</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.427792769314432</v>
+        <v>0.4402908371692648</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.7889447236180906</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3316953544753056</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>199.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5908897011224836</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5718773153167709</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5536288504037478</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.47467308718443874</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.6683417085427137</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.1894115189594516</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>199.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5496347997059173</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5272536205377935</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.505382957808021</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4279386870858301</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.3618090452261304</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1762587256274617</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.010050251256281407</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.020100502512562814</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.19095477386934673</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5678391959798995</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.21105527638190955</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.010050251256281407</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.03015075376884422</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.1407035175879397</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.08542713567839195</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.7336683417085427</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.010050251256281407</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.01507537688442211</v>
+        <v>0.9899497487437185</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.005025125628140704</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.20603015075376885</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5226130653266332</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.25125628140703515</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.010050251256281407</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0</v>
+        <v>0.020100502512562814</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.02512562814070352</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.20603015075376885</v>
+        <v>0.19095477386934673</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.03015075376884422</v>
+        <v>0.5678391959798995</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.7386934673366834</v>
+        <v>0.21105527638190955</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8341708542713567</v>
+        <v>0.010050251256281407</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.005025125628140704</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.035175879396984924</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.08040201005025126</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.04522613065326633</v>
+        <v>0.7336683417085427</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8341708542713567</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.005025125628140704</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.04522613065326633</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.03015075376884422</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.08542713567839195</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
+        <v>0.8341708542713567</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.005025125628140704</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.035175879396984924</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.08040201005025126</v>
+      </c>
+      <c r="G49" t="n" s="114">
         <v>0.04522613065326633</v>
-      </c>
-      <c r="C49" t="n" s="110">
-        <v>0.10552763819095477</v>
-      </c>
-      <c r="D49" t="n" s="111">
-        <v>0.010050251256281407</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.44221105527638194</v>
-      </c>
-      <c r="F49" t="n" s="113">
-        <v>0.33668341708542715</v>
-      </c>
-      <c r="G49" t="n" s="114">
-        <v>0.06030150753768844</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
+        <v>0.8341708542713567</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.005025125628140704</v>
+      </c>
+      <c r="E50" t="n" s="112">
         <v>0.04522613065326633</v>
       </c>
-      <c r="C50" t="n" s="110">
-        <v>0.1457286432160804</v>
-      </c>
-      <c r="D50" t="n" s="111">
-        <v>0.1708542713567839</v>
-      </c>
-      <c r="E50" t="n" s="112">
-        <v>0.11557788944723618</v>
-      </c>
       <c r="F50" t="n" s="113">
-        <v>0.1457286432160804</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.3768844221105528</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.35175879396984927</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.06030150753768844</v>
+        <v>0.9547738693467337</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05527638190954774</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.3165829145728643</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.21608040201005024</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.1407035175879397</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.04020100502512563</v>
+        <v>0.10552763819095477</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.04522613065326633</v>
+        <v>0.010050251256281407</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4371859296482412</v>
+        <v>0.44221105527638194</v>
       </c>
       <c r="F52" t="n" s="113">
         <v>0.33668341708542715</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.09045226130653267</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.020100502512562814</v>
+        <v>0.1457286432160804</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.32160804020100503</v>
+        <v>0.1708542713567839</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2663316582914573</v>
+        <v>0.11557788944723618</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.3015075376884422</v>
+        <v>0.1457286432160804</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.3768844221105528</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.35175879396984927</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.06030150753768844</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.05527638190954774</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.3165829145728643</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.21608040201005024</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.1407035175879397</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.04020100502512563</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.04522613065326633</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4371859296482412</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.33668341708542715</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.09045226130653267</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.020100502512562814</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.32160804020100503</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2663316582914573</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.3015075376884422</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.12060301507537688</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.02512562814070352</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.4120603015075377</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.2562814070351759</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.18592964824120603</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8487755978805671</v>
+        <v>0.875487042977344</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8499150407593168</v>
+        <v>0.9913687877084204</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8542641051656048</v>
+        <v>0.9873854526758087</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.586045290255668</v>
+        <v>0.9745457649383352</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.6628928378915955</v>
+        <v>114.85858002537798</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.01762738785893349</v>
+        <v>0.001789921661718539</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>4.221105527638191</v>
+        <v>0.5058626465661642</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.7291594606879246</v>
+        <v>1.158990727923917</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6212616381485938</v>
+        <v>0.9724051534245507</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8079475147203872</v>
+        <v>0.9891759575215302</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8103770024884343</v>
+        <v>0.989883986528491</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7747920492673237</v>
+        <v>0.9799705908299724</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5875507381660684</v>
+        <v>0.9799705908299725</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.273621939970688</v>
+        <v>97.8531700572002</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.02359300703094054</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.02034176165457613</v>
-      </c>
+        <v>0.0014824913031938022</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6634183487508949</v>
+        <v>0.9799705908299725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8083842973426935</v>
+        <v>0.5995132291748451</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8117504809076885</v>
+        <v>0.98542129052771</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7514720708972378</v>
+        <v>0.9712615505604826</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5897210665531992</v>
+        <v>0.9712615505604827</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.312098563766491</v>
+        <v>67.59317705045926</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.02370878940095303</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.006861661666782253</v>
-      </c>
+        <v>0.006590735991068564</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5818607554337668</v>
+        <v>0.9712615505604826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8259791952677986</v>
+        <v>0.6201448696743286</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8253731604629432</v>
+        <v>0.9860095444754144</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7714638970893447</v>
+        <v>0.9724051534245506</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6117257067843104</v>
+        <v>0.9724051534245506</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.726496583520853</v>
+        <v>70.47730095297432</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.02123266149350755</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.007596614214875734</v>
-      </c>
+        <v>0.006500405058272072</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6606625208634209</v>
+        <v>0.9724051534245507</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7871699713710105</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7892232547937823</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7358715532427094</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.555183649519094</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.744356399571641</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.02597515968259498</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.014651331302668472</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5818607554337668</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>199.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9813946077209962</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9896551347159878</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9804091179495368</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9767177319274213</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.1658291457286432</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.37286522459448107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>199.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8270863435169556</v>
+        <v>0.994537131759807</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8290221014314942</v>
+        <v>0.9925830974535764</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7543533309091092</v>
+        <v>0.9880195097224667</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6873766931118852</v>
+        <v>0.9828746325254859</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.919597989949749</v>
+        <v>0.6582914572864321</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.8608005665364508</v>
+        <v>1.5221658862721545</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>199.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8428521861539211</v>
+        <v>0.9948939193726184</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8270618630805202</v>
+        <v>0.9921986203505917</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7695590957841526</v>
+        <v>0.9871880974175354</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6909594799532633</v>
+        <v>0.9825515251789544</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.492462311557789</v>
+        <v>0.6934673366834171</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9580564645306524</v>
+        <v>1.6053910243611793</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>199.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.7893021410614838</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8071872948187853</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7339419618814337</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6464127882938409</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.9899497487437188</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.784894960152095</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>199.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8605658177070159</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8582560223677891</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8121139966474912</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7341597556549586</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.482412060301508</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>0.9036638169115928</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8341708542713567</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.1658291457286432</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8341708542713567</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.005025125628140704</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.035175879396984924</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.08040201005025126</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.04522613065326633</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.010050251256281407</v>
+        <v>0.8341708542713567</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.020100502512562814</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.19095477386934673</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5678391959798995</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.21105527638190955</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.010050251256281407</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.03015075376884422</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.1407035175879397</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.08542713567839195</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.7336683417085427</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.01507537688442211</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.20603015075376885</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5226130653266332</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.25125628140703515</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.02512562814070352</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.20603015075376885</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.03015075376884422</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.7386934673366834</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7469508457955383</v>
+        <v>0.6322935407318216</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7721736327085582</v>
+        <v>0.7818891520114867</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6288948122298078</v>
+        <v>0.7192945573280332</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6288948122298077</v>
+        <v>0.5444070049920716</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.3893075761541342</v>
+        <v>3.584824685348362</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.03292948592110467</v>
+        <v>0.024568271528400777</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.201005025125628</v>
+        <v>2.4522613065326633</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.286997521826185</v>
+        <v>0.8975800930309603</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6288948122298078</v>
+        <v>0.5688946620199933</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.7469508457955383</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.7721736327085582</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.6288948122298078</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.6288948122298078</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.39550868484956525</v>
-      </c>
       <c r="E11" t="n" s="291">
-        <v>0.6288948122298078</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6288948122298078</v>
-      </c>
+        <v>0.6288948122298077</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.3893075761541342</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.03292948592110467</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6288948122298078</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.39550868484956525</v>
+        <v>0.19486554178750315</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6288948122298078</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.39550868484956525</v>
-      </c>
+        <v>0.606690780259795</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.43543154072641355</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.43543154072641377</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.5425287529759308</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.025625502014457763</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6288948122298078</v>
+        <v>0.43543154072641366</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.3241019056234862</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7252171554813329</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5688946620199933</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5688946620199933</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.639237383074931</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.02730564196794593</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5688946620199933</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>199.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8661927093610928</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9024673989208164</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7156827149929545</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6288948122298076</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.100502512562814</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.1891554378199198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>199.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9332639094399245</v>
+        <v>0.59611758159882</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9024673989208164</v>
+        <v>0.8006779911257907</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7156827149929545</v>
+        <v>0.6301934734559139</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6288948122298077</v>
+        <v>0.5426840314470649</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9547738693467337</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.20832381583254792</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>199.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8720076220396044</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8779617103984861</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8010684707593931</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6603157486373138</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.100502512562814</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.1891554378199198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>199.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.925795724441638</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8246465445835126</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6918060353737628</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6358322297324717</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.301507537688442</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6543629915381868</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.04522613065326633</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9547738693467337</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.04522613065326633</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.10552763819095477</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.010050251256281407</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.44221105527638194</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.33668341708542715</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.06030150753768844</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.04522613065326633</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.1457286432160804</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.1708542713567839</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.11557788944723618</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.1457286432160804</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.3768844221105528</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8782150415106627</v>
+        <v>0.6451970742191563</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8782454951847876</v>
+        <v>0.7728517561182</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7829212999946559</v>
+        <v>0.7091562140179708</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7829212999946558</v>
+        <v>0.531426543776285</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.213248466803801</v>
+        <v>3.402411319192789</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.01726345604531371</v>
+        <v>0.021358724797827664</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.5150753768844223</v>
+        <v>3.134003350083752</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1168018323200712</v>
+        <v>0.5704268175651233</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7829212999946559</v>
+        <v>0.4736626763568796</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7829212999946559</v>
+        <v>0.7929232303458973</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7829212999946559</v>
+        <v>0.7956613852162155</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6129657619853219</v>
+        <v>0.660662520863421</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7829212999946559</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7829212999946559</v>
-      </c>
+        <v>0.6606625208634209</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>3.8938376187884187</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.029063454313487204</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7829212999946559</v>
+        <v>0.6606625208634209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6129657619853219</v>
+        <v>0.1781941399242577</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7829212999946559</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6129657619853219</v>
-      </c>
+        <v>0.6428373113551962</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.47366267635688</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.47366267635687964</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>1.799844529657728</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.02129185294026565</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7829212999946559</v>
+        <v>0.4736626763568796</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.19076734943442353</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6300942322071876</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.4599544341085544</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.4599544341085544</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.703391206811648</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.023484658483968204</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.45995443410855436</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>199.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9448093065775651</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9441719387893964</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8354301472834152</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7829212999946558</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.6683417085427137</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.1894115189594516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>199.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.943531017450829</v>
+        <v>0.5549774656058757</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9441719387893964</v>
+        <v>0.7772767967989256</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8354301472834152</v>
+        <v>0.5710654378995966</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7829212999946559</v>
+        <v>0.5125392395942693</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.3618090452261304</v>
+        <v>0.9899497487437185</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.1762587256274617</v>
+        <v>0.099997462025557</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>199.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.8997630044542557</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8524471287913616</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7565761070622827</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.6727094046663378</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.919597989949749</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>0.8608005665364508</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>199.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9198493442684228</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8579575778698544</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7672702090106328</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.6761522658249107</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.492462311557789</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>0.9580564645306524</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.09045226130653267</v>
-      </c>
-      <c r="C23" t="n" s="455">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.010050251256281407</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9899497487437185</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.010050251256281407</v>
+      </c>
+      <c r="C26" t="n" s="455">
         <v>0.020100502512562814</v>
       </c>
-      <c r="D23" t="n" s="456">
-        <v>0.32160804020100503</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2663316582914573</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.3015075376884422</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.12060301507537688</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.02512562814070352</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4120603015075377</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.2562814070351759</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.18592964824120603</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.19095477386934673</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.5678391959798995</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.21105527638190955</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.010050251256281407</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.03015075376884422</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.1407035175879397</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.08542713567839195</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.7336683417085427</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9891759575215302</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.989883986528491</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9799705908299724</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9799705908299725</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>97.8531700572002</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0014824913031938022</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.6758793969849246</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5559339348519514</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9799705908299725</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6288664647447466</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.637720134025433</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.46812710805882163</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.46812710805882163</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.7602969248923233</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05126476408850876</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.386934673366834</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.271692640726742</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.4681271080588216</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9799705908299725</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9799705908299725</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9603423588916452</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9799705908299725</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9799705908299725</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9799705908299725</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.4681271080588216</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.4681271080588216</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.2191429892995156</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.4681271080588216</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.4681271080588216</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.4681271080588216</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9603423588916452</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9799705908299725</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9603423588916452</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9799705908299725</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.2191429892995156</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.4681271080588216</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.2191429892995156</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.4681271080588216</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>199.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9947086465541496</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9949800477471828</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9849652150511757</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9799705908299727</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.6582914572864321</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.5221658862721545</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8865266069540979</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8567750895243225</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5862039309652987</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.46812710805882163</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.984924623115578</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.631376028638058</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>199.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.995244321722188</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9949800477471828</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9849652150511757</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9799705908299727</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.6934673366834171</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6053910243611793</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8238573652988437</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8567750895243225</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5862039309652987</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4681271080588217</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.7889447236180906</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3316953544753056</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8341708542713567</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.035175879396984924</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.08040201005025126</v>
-      </c>
-      <c r="G23" t="n" s="573">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.35175879396984927</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.06030150753768844</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05527638190954774</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.3165829145728643</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.21608040201005024</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.1407035175879397</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.04020100502512563</v>
+      </c>
+      <c r="D24" t="n" s="571">
         <v>0.04522613065326633</v>
       </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8341708542713567</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.04522613065326633</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.03015075376884422</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.08542713567839195</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="E24" t="n" s="572">
+        <v>0.4371859296482412</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.33668341708542715</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6288664647447466</v>
+        <v>0.8782150415106627</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.637720134025433</v>
+        <v>0.8782454951847876</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.46812710805882163</v>
+        <v>0.7829212999946559</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.46812710805882163</v>
+        <v>0.7829212999946558</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.7602969248923233</v>
+        <v>7.213248466803801</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05126476408850876</v>
+        <v>0.01726345604531371</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.386934673366834</v>
+        <v>2.5150753768844223</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.271692640726742</v>
+        <v>1.1168018323200712</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.4681271080588216</v>
+        <v>0.7829212999946559</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.4681271080588216</v>
+        <v>0.7829212999946559</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.4681271080588216</v>
+        <v>0.7829212999946559</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.2191429892995156</v>
+        <v>0.6129657619853219</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.4681271080588216</v>
+        <v>0.7829212999946559</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.4681271080588216</v>
+        <v>0.7829212999946559</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.4681271080588216</v>
+        <v>0.7829212999946559</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.2191429892995156</v>
+        <v>0.6129657619853219</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.4681271080588216</v>
+        <v>0.7829212999946559</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.2191429892995156</v>
+        <v>0.6129657619853219</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.4681271080588216</v>
+        <v>0.7829212999946559</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>199.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8865266069540979</v>
+        <v>0.9448093065775651</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8567750895243225</v>
+        <v>0.9441719387893964</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5862039309652987</v>
+        <v>0.8354301472834152</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.46812710805882163</v>
+        <v>0.7829212999946558</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.984924623115578</v>
+        <v>2.6683417085427137</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.631376028638058</v>
+        <v>1.1894115189594516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>199.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8238573652988437</v>
+        <v>0.943531017450829</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8567750895243225</v>
+        <v>0.9441719387893964</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5862039309652987</v>
+        <v>0.8354301472834152</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4681271080588217</v>
+        <v>0.7829212999946559</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.7889447236180906</v>
+        <v>2.3618090452261304</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3316953544753056</v>
+        <v>1.1762587256274617</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.35175879396984927</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.06030150753768844</v>
+        <v>0.020100502512562814</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05527638190954774</v>
+        <v>0.32160804020100503</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.3165829145728643</v>
+        <v>0.2663316582914573</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.21608040201005024</v>
+        <v>0.3015075376884422</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.1407035175879397</v>
+        <v>0.12060301507537688</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.04020100502512563</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.04522613065326633</v>
+        <v>0.4120603015075377</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4371859296482412</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.33668341708542715</v>
+        <v>0.18592964824120603</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7715308796510545</v>
+        <v>0.753539050125706</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7979767201443395</v>
+        <v>0.7836616816564728</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8935299034009798</v>
+        <v>0.8855661758970035</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.283150246583571</v>
+        <v>0.2659144049481839</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.9499245864856243</v>
+        <v>3.622389633315364</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.024697111480824353</v>
+        <v>0.02495027206657346</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.8040201005025125</v>
+        <v>2.0723618090452263</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7056653280057656</v>
+        <v>0.6580426667484087</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.20674211646708215</v>
+        <v>0.1737121591474355</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7438499251674824</v>
+        <v>0.7383042359323919</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7616298596280853</v>
+        <v>0.7531153448987009</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8711015885281452</v>
+        <v>0.857894840049289</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2620020796317173</v>
+        <v>0.2531414427053856</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.1951563163060603</v>
+        <v>3.050474500287149</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.02763341875858204</v>
+        <v>0.02718546288107581</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04379900416484966</v>
+        <v>0.04646778234587821</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.173269119635378</v>
+        <v>0.19381171379989945</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7456460322836616</v>
+        <v>0.7118612251577534</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7666387701882657</v>
+        <v>0.7501366022560509</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8655053622690816</v>
+        <v>0.8559137523274658</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2674113109944331</v>
+        <v>0.2501366520346542</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.2852019626685904</v>
+        <v>3.002186831001008</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.027383268734926212</v>
+        <v>0.0287757500008676</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04279293870874905</v>
+        <v>0.04667417791484723</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.18992511211539523</v>
+        <v>0.18116331673871203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7571843946322881</v>
+        <v>0.7150748824288059</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7773157593134501</v>
+        <v>0.7504824932332613</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8737682714097891</v>
+        <v>0.8564409477841055</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2794618177755677</v>
+        <v>0.2504831148322946</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.490663537378914</v>
+        <v>3.0077348197248925</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.026405454439020513</v>
+        <v>0.028394313581593392</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.04277905766982016</v>
+        <v>0.046644218034574275</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.20770440720406277</v>
+        <v>0.18116331673871203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7576493885667858</v>
+        <v>0.7614833596773699</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7783633965954474</v>
+        <v>0.7964333775988325</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.868869371993404</v>
+        <v>0.8929250696190176</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2806842197818314</v>
+        <v>0.3029953909265384</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.511890114895433</v>
+        <v>3.9123966797921623</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.026206945410742213</v>
+        <v>0.025325737631202758</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.038845457478120266</v>
+        <v>0.06302610307432277</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.20943196423754906</v>
+        <v>0.19601830087985597</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7449386834583225</v>
+        <v>0.7304665945324611</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.776754159348454</v>
+        <v>0.7529240938721268</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8672481338818028</v>
+        <v>0.8670915614062289</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2788095609035832</v>
+        <v>0.2529470739276267</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.4793667693045767</v>
+        <v>3.0473391990008674</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.027571061785073372</v>
+        <v>0.027164468905829166</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04451062902181025</v>
+        <v>0.07256490715025064</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.18992511211539523</v>
+        <v>0.16460871366698768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7505129288604309</v>
+        <v>0.7343932983584364</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7825579886867589</v>
+        <v>0.7580956083463153</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8697604832460919</v>
+        <v>0.8669369068777786</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2856534693588353</v>
+        <v>0.2582742349203977</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.598927290823422</v>
+        <v>3.1338645948669677</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.02701781872982388</v>
+        <v>0.026715439813309604</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04336168496541666</v>
+        <v>0.07206122280785449</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.19284942306291883</v>
+        <v>0.173269119635378</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7474012666184245</v>
+        <v>0.747505533187796</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.787037877154733</v>
+        <v>0.7794499783815044</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8453523448989303</v>
+        <v>0.888358052031673</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.2910969247562216</v>
+        <v>0.28195989350930206</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.695670697866658</v>
+        <v>3.5341188028980848</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.027233014598811528</v>
+        <v>0.02552285115035829</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.035652585920404475</v>
+        <v>0.07392868840251017</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.23365129078940106</v>
+        <v>0.17737821634309692</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7513916131845391</v>
+        <v>0.7343183834144023</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7879316362235919</v>
+        <v>0.7739104017276305</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8457564330261182</v>
+        <v>0.8816650196886613</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.2922002332834848</v>
+        <v>0.27553878181519204</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.715460534482826</v>
+        <v>3.4230252415031637</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.02678117672288236</v>
+        <v>0.02662607058361264</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03531883098489376</v>
+        <v>0.07384108316240871</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.23365129078940106</v>
+        <v>0.173269119635378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.771481157347485</v>
+        <v>0.7228092226930947</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7971452257928491</v>
+        <v>0.7633772279888604</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.897045826139146</v>
+        <v>0.8583033553384378</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3039246674539742</v>
+        <v>0.26387208130705925</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.9296350253941843</v>
+        <v>3.226135935694823</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.02517908156994932</v>
+        <v>0.02761828373038597</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.047442770809770454</v>
+        <v>0.06845928268341096</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.20943196423754906</v>
+        <v>0.173269119635378</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7541252025498254</v>
+        <v>0.7278552053963382</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7863552576907487</v>
+        <v>0.7688028257774879</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8904596128827964</v>
+        <v>0.8608197487959779</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.2902581818960616</v>
+        <v>0.26979538350338866</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.6806674912341037</v>
+        <v>3.3253123804946068</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.026769276591623585</v>
+        <v>0.027131132984720006</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04977045325903395</v>
+        <v>0.06736311281518631</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.18992511211539523</v>
+        <v>0.173269119635378</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>199.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6424102798897112</v>
+        <v>0.6733436572970103</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7234895970375309</v>
+        <v>0.661452598577252</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6913643269521629</v>
+        <v>0.6947830288414832</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5617936526102352</v>
+        <v>0.6405354852099021</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.919597989949749</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>0.8608005665364508</v>
+        <v>0.37286522459448107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>199.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6141134379397707</v>
+        <v>0.6979422807369765</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6907988611516579</v>
+        <v>0.6800225213104207</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6671720157126154</v>
+        <v>0.7168544458365618</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5183280516878291</v>
+        <v>0.5459132362135014</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.492462311557789</v>
+        <v>0.6582914572864321</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>0.9580564645306524</v>
+        <v>1.5221658862721545</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>199.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.5189172638478619</v>
+        <v>0.6961507051576667</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6179715206188973</v>
+        <v>0.6778813447403625</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.5792452444863149</v>
+        <v>0.7142738360982558</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.4304760499882016</v>
+        <v>0.5329632796448099</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.9899497487437188</v>
+        <v>0.6934673366834171</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.784894960152095</v>
+        <v>1.6053910243611793</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>199.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5101640835850038</v>
+        <v>0.16461261451951897</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6105839236659237</v>
+        <v>0.35334994922203233</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5841956379922638</v>
+        <v>0.25104903863141403</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.4060046463259274</v>
+        <v>0.14977420936262117</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.482412060301508</v>
+        <v>0.9899497487437185</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>0.9036638169115928</v>
+        <v>0.099997462025557</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>199.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6165677699547191</v>
+        <v>0.5666918834276429</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6219134405890361</v>
+        <v>0.662653818089773</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5929126669066086</v>
+        <v>0.6180651698234659</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.4945812791437686</v>
+        <v>0.4676207948930697</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.6683417085427137</v>
+        <v>3.919597989949749</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.1894115189594516</v>
+        <v>0.8608005665364508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>199.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5793196488379878</v>
+        <v>0.5336046217391415</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5805522214554161</v>
+        <v>0.6297314022334873</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5479945711615803</v>
+        <v>0.582716787153966</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.45165776046684863</v>
+        <v>0.41699631141721194</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.3618090452261304</v>
+        <v>4.492462311557789</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.1762587256274617</v>
+        <v>0.9580564645306524</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>199.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6365129969938464</v>
+        <v>0.575928691805909</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5476546523240516</v>
+        <v>0.4833515381835561</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5724329081706357</v>
+        <v>0.3776354038141388</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.4789538633256402</v>
+        <v>0.37238411970271973</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.6582914572864321</v>
+        <v>1.984924623115578</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.5221658862721545</v>
+        <v>1.631376028638058</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>199.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6314764253311861</v>
+        <v>0.5736803834062651</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5409867978273856</v>
+        <v>0.5230346845611518</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5653700600172349</v>
+        <v>0.43406344320571444</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.4620464109212928</v>
+        <v>0.4128806616423495</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.6934673366834171</v>
+        <v>2.7889447236180906</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.6053910243611793</v>
+        <v>1.3316953544753056</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>199.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5427427033413202</v>
+        <v>0.6193137410024018</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.4701300798987338</v>
+        <v>0.5951361221412639</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.36559252027182476</v>
+        <v>0.5660798266812151</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3477916920689046</v>
+        <v>0.4876579055235643</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.984924623115578</v>
+        <v>2.6683417085427137</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.631376028638058</v>
+        <v>1.1894115189594516</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>199.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5738200078146687</v>
+        <v>0.5897908666582526</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5527236019546121</v>
+        <v>0.5585294908765741</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.46449159022336495</v>
+        <v>0.5262026541824969</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.42552754116001223</v>
+        <v>0.4536131899183672</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.7889447236180906</v>
+        <v>2.3618090452261304</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3316953544753056</v>
+        <v>1.1762587256274617</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.010050251256281407</v>
+        <v>0.8341708542713567</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.020100502512562814</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.19095477386934673</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5678391959798995</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.21105527638190955</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.010050251256281407</v>
+        <v>0.8341708542713567</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.03015075376884422</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.1407035175879397</v>
+        <v>0.035175879396984924</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.08542713567839195</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.7336683417085427</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0</v>
+        <v>0.8341708542713567</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.01507537688442211</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
         <v>0.005025125628140704</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.20603015075376885</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.5226130653266332</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.25125628140703515</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.0</v>
+        <v>0.010050251256281407</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.0</v>
+        <v>0.9899497487437185</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.02512562814070352</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.20603015075376885</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.03015075376884422</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.7386934673366834</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.09045226130653267</v>
+        <v>0.010050251256281407</v>
       </c>
       <c r="C43" t="n" s="798">
         <v>0.020100502512562814</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.32160804020100503</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2663316582914573</v>
+        <v>0.19095477386934673</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.3015075376884422</v>
+        <v>0.5678391959798995</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.21105527638190955</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.12060301507537688</v>
+        <v>0.010050251256281407</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.02512562814070352</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4120603015075377</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.2562814070351759</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.18592964824120603</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.7336683417085427</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8341708542713567</v>
+        <v>0.35175879396984927</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.005025125628140704</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.035175879396984924</v>
+        <v>0.3165829145728643</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.08040201005025126</v>
+        <v>0.21608040201005024</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.04522613065326633</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8341708542713567</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.005025125628140704</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.04522613065326633</v>
+        <v>0.4371859296482412</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.03015075376884422</v>
+        <v>0.33668341708542715</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.08542713567839195</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.35175879396984927</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.06030150753768844</v>
+        <v>0.020100502512562814</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05527638190954774</v>
+        <v>0.32160804020100503</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.3165829145728643</v>
+        <v>0.2663316582914573</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.21608040201005024</v>
+        <v>0.3015075376884422</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.1407035175879397</v>
+        <v>0.12060301507537688</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.04020100502512563</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.04522613065326633</v>
+        <v>0.4120603015075377</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4371859296482412</v>
+        <v>0.2562814070351759</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.33668341708542715</v>
+        <v>0.18592964824120603</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
